--- a/general/Python.xlsx
+++ b/general/Python.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Temp\python\python\general\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\python\general\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B97FA09B-CBD3-4C65-98D3-E27C64AC21EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D12471F3-8DDA-48AE-84DC-3E64A905906E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{570A2267-BD17-432D-9B9F-8D7ACBFD45E8}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="167">
   <si>
     <t>List</t>
   </si>
@@ -77,9 +77,6 @@
   </si>
   <si>
     <t>df.drop_duplicates()</t>
-  </si>
-  <si>
-    <t>df.value_counts()</t>
   </si>
   <si>
     <t>df.index</t>
@@ -311,13 +308,690 @@
   </si>
   <si>
     <t>marketing_finance.sort_values(["Salary","Senior Management"] , ascending = [False,False])</t>
+  </si>
+  <si>
+    <t>df.loc[5,'Region']</t>
+  </si>
+  <si>
+    <t>df.iloc[5,3]</t>
+  </si>
+  <si>
+    <t>df.loc[]</t>
+  </si>
+  <si>
+    <t>df.iloc[]</t>
+  </si>
+  <si>
+    <t>df.to_csv()</t>
+  </si>
+  <si>
+    <t>df.drop(column_name ) or df.drop( column_name , inplace = True)</t>
+  </si>
+  <si>
+    <t>round(df[(df['TotalCost'] &gt; 150) &amp; (df['Region'] == 'West')]['TotalCost'].sum(),2)</t>
+  </si>
+  <si>
+    <t>df['Region'].unique()</t>
+  </si>
+  <si>
+    <t>df.groupby()</t>
+  </si>
+  <si>
+    <t>df.groupby('Day')['ItemsOrdered'].mean()</t>
+  </si>
+  <si>
+    <t>Python built-in</t>
+  </si>
+  <si>
+    <t>pd.read_csv('../data/pokemon.csv' , usecols = ['Pokemon']).squeeze()</t>
+  </si>
+  <si>
+    <t>type()</t>
+  </si>
+  <si>
+    <t>id()</t>
+  </si>
+  <si>
+    <t>dir()</t>
+  </si>
+  <si>
+    <t>shape</t>
+  </si>
+  <si>
+    <t>max()</t>
+  </si>
+  <si>
+    <t>min()</t>
+  </si>
+  <si>
+    <t>len()</t>
+  </si>
+  <si>
+    <t>sorted()</t>
+  </si>
+  <si>
+    <t>list()</t>
+  </si>
+  <si>
+    <t>dict()</t>
+  </si>
+  <si>
+    <t>head()</t>
+  </si>
+  <si>
+    <t>tail()</t>
+  </si>
+  <si>
+    <t>Series.is_unique()</t>
+  </si>
+  <si>
+    <t>series.name</t>
+  </si>
+  <si>
+    <t>from pandas_datareader.data import DataReader</t>
+  </si>
+  <si>
+    <t>from datetime import datetime</t>
+  </si>
+  <si>
+    <t>goog = DataReader("GOOG",  "yahoo", datetime(2000,1,1), datetime(2012,1,1))</t>
+  </si>
+  <si>
+    <t>import pandas_datareader as pdr</t>
+  </si>
+  <si>
+    <t>gs10=pdr.get_data_fred('GS10')</t>
+  </si>
+  <si>
+    <t>yfinance</t>
+  </si>
+  <si>
+    <t>import yfinance as yf</t>
+  </si>
+  <si>
+    <t>pfizer = yf.Ticker('PFE')</t>
+  </si>
+  <si>
+    <t>pfizer.info</t>
+  </si>
+  <si>
+    <t>pfizer.actions</t>
+  </si>
+  <si>
+    <t>pfizer.dividends</t>
+  </si>
+  <si>
+    <t>pfizer.splits</t>
+  </si>
+  <si>
+    <t>pfizer.sustainability</t>
+  </si>
+  <si>
+    <t>pfizer.recommendations</t>
+  </si>
+  <si>
+    <t>pfizer.calendar</t>
+  </si>
+  <si>
+    <t>pfizer.isin</t>
+  </si>
+  <si>
+    <t>pfizer.options</t>
+  </si>
+  <si>
+    <t>old  =  pfizer.history(start="2010-01-01",  end="2020-07-21")</t>
+  </si>
+  <si>
+    <t>old = old.reset_index()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">for i in ['Open', 'High', 'Close', 'Low']: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      old[i]  =  old[i].astype('float64')</t>
+  </si>
+  <si>
+    <t>series.sort_values(inplace = True)</t>
+  </si>
+  <si>
+    <t>series.sort_index()</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>'Bulbasaur' in pokemon #this returns false because by default , python looks at index , not values</t>
+  </si>
+  <si>
+    <t>'Bulbasaur' in pokemon.values #this return true because we force pandas to look at the values</t>
+  </si>
+  <si>
+    <t>series.reindex()</t>
+  </si>
+  <si>
+    <t>series.get()</t>
+  </si>
+  <si>
+    <t>pokemon.get(10000 , default = 'hjdjhdf')</t>
+  </si>
+  <si>
+    <t>google.idmax()</t>
+  </si>
+  <si>
+    <t>google.idmin()</t>
+  </si>
+  <si>
+    <t>series.apply()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">def classify_performance (number) : </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    if number &lt; 300 :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        return 'OK'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    elif number &gt;= 300 and number &lt; 500 :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        return 'Satisfctory'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    else :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        return 'Incredible'</t>
+  </si>
+  <si>
+    <t>google.apply(classify_performance)</t>
+  </si>
+  <si>
+    <t>google.apply(lambda stock_price : stock_price + 1)</t>
+  </si>
+  <si>
+    <t>series.map()</t>
+  </si>
+  <si>
+    <t>pokemon_names.map(pokemon_types)</t>
+  </si>
+  <si>
+    <t>nba.axes</t>
+  </si>
+  <si>
+    <t>Jupyter</t>
+  </si>
+  <si>
+    <t>output = None</t>
+  </si>
+  <si>
+    <t>nba.insert()</t>
+  </si>
+  <si>
+    <t>nba.insert(loc = 3 , column= 'Sport' , value = 'Basketball')</t>
+  </si>
+  <si>
+    <t>nba['Age'].add(5) or nba['Age'] + 5</t>
+  </si>
+  <si>
+    <t>nba['Salary'].sub(5000000) or nba['Age'] - 5000000</t>
+  </si>
+  <si>
+    <t>nba['Weight'].mul(0.4) or nba['Weight'] * 0.4</t>
+  </si>
+  <si>
+    <t>nba['Salary'].div(1000) or nba['Salary'] / 1000</t>
+  </si>
+  <si>
+    <t>df.value_counts() or df.value_counts(normalize = True) to give percentage result #most popular/common</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nba['Salary'].div(1000) or nba['Salary'] / 1000 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">nba.dropna() </t>
+  </si>
+  <si>
+    <t xml:space="preserve">nba.dropna() or nba.dropna(how = all) or nba.dropna(inplace = True) or nba.dropna(Axis = 1) or nba.dropna(subset = ['Salary']) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">nba.fillna() </t>
+  </si>
+  <si>
+    <t>nba.fillna(0) or nba['Salary'].fillna(0) or nba['College'].fillna('No College')</t>
+  </si>
+  <si>
+    <r>
+      <t>df.loc[df[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"gender"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">] </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF006699"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>==</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF273239"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"male"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"gender"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">] </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF006699"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF273239"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF009900"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>df[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"gender"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">] </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF006699"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF273239"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>np.where(df[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"gender"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">] </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF006699"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>==</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF273239"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"female"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF009900"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF009900"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>np.where()</t>
+  </si>
+  <si>
+    <r>
+      <t>df[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'gender'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>].mask(df[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'gender'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">] </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF006699"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>==</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF273239"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'female'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF009900"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>, inplace</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF006699"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>True</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>df[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'gender'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>].mask()</t>
+    </r>
+  </si>
+  <si>
+    <t>nba = pd.read_csv('../data/nba.csv').dropna(how = 'all')</t>
+  </si>
+  <si>
+    <t>nba['Salary'].astypes("int")</t>
+  </si>
+  <si>
+    <t>nba['Salary'].astype()</t>
+  </si>
+  <si>
+    <t>nba['Position'].nunique()</t>
+  </si>
+  <si>
+    <t>nba.sort_values('Name' , ascending= False)</t>
+  </si>
+  <si>
+    <t>nba.sort_values(['Team','Name'] , ascending= [True , False])</t>
+  </si>
+  <si>
+    <t>nba.sort_index(ascending = False)</t>
+  </si>
+  <si>
+    <t>nba['Salary'].rank()</t>
+  </si>
+  <si>
+    <t>nba['Salary Rank'] = nba['Salary'].rank(ascending=False).astype('int')</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -347,6 +1021,18 @@
     <font>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF009900"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF808080"/>
       <name val="Consolas"/>
       <family val="3"/>
     </font>
@@ -691,303 +1377,763 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79E9A589-AD7A-4E88-B929-890A4FD0CF44}">
-  <dimension ref="B2:D42"/>
+  <dimension ref="B2:G132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="55.42578125" customWidth="1"/>
-    <col min="3" max="3" width="52.42578125" customWidth="1"/>
-    <col min="4" max="4" width="84.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" customWidth="1"/>
+    <col min="4" max="4" width="40" customWidth="1"/>
+    <col min="5" max="5" width="52.42578125" customWidth="1"/>
+    <col min="6" max="6" width="115.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="54.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="G2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>140</v>
+      </c>
+      <c r="C9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" t="s">
         <v>56</v>
       </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
+      <c r="E9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>86</v>
+      </c>
+      <c r="E14" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>87</v>
+      </c>
+      <c r="E15" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>88</v>
+      </c>
+      <c r="E16" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>89</v>
+      </c>
+      <c r="E17" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>90</v>
+      </c>
+      <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>91</v>
+      </c>
+      <c r="E19" t="s">
+        <v>35</v>
+      </c>
+      <c r="F19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>92</v>
+      </c>
+      <c r="E20" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" t="s">
+        <v>141</v>
+      </c>
+      <c r="G20" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>118</v>
+      </c>
+      <c r="E21" t="s">
+        <v>39</v>
+      </c>
+      <c r="F21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="22" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>40</v>
+      </c>
+      <c r="F22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>42</v>
+      </c>
+      <c r="F23" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="24" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>45</v>
+      </c>
+      <c r="F26" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>46</v>
+      </c>
+      <c r="F27" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
+        <v>47</v>
+      </c>
+      <c r="F28" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E29" t="s">
+        <v>48</v>
+      </c>
+      <c r="F29" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E30" t="s">
+        <v>49</v>
+      </c>
+      <c r="F30" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E31" t="s">
+        <v>50</v>
+      </c>
+      <c r="F31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="F32" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="33" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="F33" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E34" t="s">
+        <v>29</v>
+      </c>
+      <c r="F34" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="35" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E35" t="s">
         <v>38</v>
       </c>
-      <c r="D5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>59</v>
-      </c>
-      <c r="C10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
-        <v>55</v>
-      </c>
-      <c r="D15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C19" t="s">
-        <v>37</v>
-      </c>
-      <c r="D19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C20" t="s">
-        <v>40</v>
-      </c>
-      <c r="D20" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C21" t="s">
+      <c r="F35" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="36" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E36" t="s">
         <v>41</v>
       </c>
-      <c r="D21" t="s">
+      <c r="F36" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="37" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="F37" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="38" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="F38" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="39" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="F39" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="40" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="F40" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="41" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="F41" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="42" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="F42" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="43" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="F43" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="44" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="F44" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="45" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="F45" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="46" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="F46" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="47" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="F47" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="48" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="F48" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="49" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F49" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="50" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F50" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="51" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F51" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="52" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F52" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="53" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F53" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="54" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F54" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="55" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F55" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="66" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F66" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="67" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F67" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="68" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F68" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C22" t="s">
-        <v>43</v>
-      </c>
-      <c r="D22" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C23" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C24" t="s">
-        <v>45</v>
-      </c>
-      <c r="D24" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C25" t="s">
-        <v>46</v>
-      </c>
-      <c r="D25" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C26" t="s">
-        <v>47</v>
-      </c>
-      <c r="D26" t="s">
+    <row r="69" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F69" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="70" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F70" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="71" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F71" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="72" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F72" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="73" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F73" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="74" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F74" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="75" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F75" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C27" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C28" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="29" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C29" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C30" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C33" t="s">
-        <v>30</v>
-      </c>
-      <c r="D33" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C34" t="s">
-        <v>39</v>
-      </c>
-      <c r="D34" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C35" t="s">
-        <v>42</v>
-      </c>
-      <c r="D35" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D36" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="37" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D37" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="38" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D38" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="39" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D39" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="40" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D40" s="2" t="s">
+    <row r="76" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F76" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="41" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D41" t="s">
+    <row r="77" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F77" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="42" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D42" t="s">
-        <v>69</v>
+    <row r="78" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F78" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="79" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F79" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F80" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="81" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F81" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="82" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F82" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="83" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F83" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="84" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F84" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="85" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F85" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="86" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F86" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="87" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F87" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="88" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F88" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="89" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F89" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="90" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F90" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="91" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F91" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="92" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F92" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="93" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F93" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="94" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F94" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="95" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F95" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="96" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F96" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="97" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F97" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="98" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F98" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="99" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F99" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="100" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F100" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="101" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F101" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="102" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F102" s="2"/>
+    </row>
+    <row r="103" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F103" s="2"/>
+    </row>
+    <row r="104" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F104" s="2"/>
+    </row>
+    <row r="105" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F105" s="2"/>
+    </row>
+    <row r="106" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F106" s="2"/>
+    </row>
+    <row r="107" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F107" s="2"/>
+    </row>
+    <row r="108" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F108" s="2"/>
+    </row>
+    <row r="109" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F109" s="2"/>
+    </row>
+    <row r="114" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F114" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="115" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F115" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="116" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F116" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="117" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F117" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="118" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F118" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="119" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F119" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="120" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F120" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="122" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F122" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="124" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F124" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="127" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F127" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="128" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F128" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="129" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F129" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="131" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F131" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="132" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F132" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
